--- a/congviec.xlsx
+++ b/congviec.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>BẢNG MÔ TẢ CÔNG VIỆC</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Code chức năng 1(Login)</t>
   </si>
   <si>
-    <t>Code các chức năng khác…</t>
-  </si>
-  <si>
     <t>Tìm hiểu về SQL</t>
   </si>
   <si>
@@ -124,7 +121,25 @@
     <t>4h</t>
   </si>
   <si>
-    <t>12h</t>
+    <t>Soạn file mô tả công cụ quản lí nhiệm vụ(trello)</t>
+  </si>
+  <si>
+    <t>Tài liệu hướng dẫn cài đặt</t>
+  </si>
+  <si>
+    <t>video hướng dẫn cài đặt</t>
+  </si>
+  <si>
+    <t>Tài liệu hướng dẫn sử dụng</t>
+  </si>
+  <si>
+    <t>video hướng dẫn sử dụng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code </t>
+  </si>
+  <si>
+    <t>48 h</t>
   </si>
 </sst>
 </file>
@@ -209,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +253,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,16 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -574,32 +592,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,7 +860,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -881,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -895,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -961,37 +979,107 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="13">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
